--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44393,6 +44393,41 @@
         <v>412300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1721600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44428,6 +44428,41 @@
         <v>1721600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>7806800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44463,6 +44463,41 @@
         <v>7806800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1964800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44498,6 +44498,41 @@
         <v>1964800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2574700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44533,6 +44533,41 @@
         <v>2574700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>4678200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44568,6 +44568,41 @@
         <v>4678200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2255000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44603,6 +44603,41 @@
         <v>2255000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3968400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44638,6 +44638,41 @@
         <v>3968400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>2127700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44673,6 +44673,41 @@
         <v>2127700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>4421100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44708,6 +44708,41 @@
         <v>4421100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>5047000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44743,6 +44743,41 @@
         <v>5047000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>2876700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44778,6 +44778,41 @@
         <v>2876700</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>2985700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44813,6 +44813,76 @@
         <v>2985700</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1664800</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>4796600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44883,6 +44883,76 @@
         <v>4796600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1272900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1009000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44953,6 +44953,41 @@
         <v>1009000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1556200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44988,6 +44988,41 @@
         <v>1556200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1995700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45023,6 +45023,41 @@
         <v>1995700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>2277600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45058,6 +45058,41 @@
         <v>2277600</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>3020000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45093,6 +45093,76 @@
         <v>3020000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1043300</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1025200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45163,6 +45163,41 @@
         <v>1025200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1739900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45198,6 +45198,41 @@
         <v>1739900</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>3778000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1743"/>
+  <dimension ref="A1:I1744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62803,6 +62803,41 @@
         <v>3778000</v>
       </c>
     </row>
+    <row r="1744">
+      <c r="A1744" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1744" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1744" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1744" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>717900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1744"/>
+  <dimension ref="A1:I1745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62838,6 +62838,41 @@
         <v>717900</v>
       </c>
     </row>
+    <row r="1745">
+      <c r="A1745" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1745" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1745" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1745" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>1509100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1745"/>
+  <dimension ref="A1:I1746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62873,6 +62873,41 @@
         <v>1509100</v>
       </c>
     </row>
+    <row r="1746">
+      <c r="A1746" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1746" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1746" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1746" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>1099600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1746"/>
+  <dimension ref="A1:I1747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62908,6 +62908,41 @@
         <v>1099600</v>
       </c>
     </row>
+    <row r="1747">
+      <c r="A1747" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1747" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1747" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>577300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1747"/>
+  <dimension ref="A1:I1748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62943,6 +62943,41 @@
         <v>577300</v>
       </c>
     </row>
+    <row r="1748">
+      <c r="A1748" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1748" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1748" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>1211700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1748"/>
+  <dimension ref="A1:I1749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62978,6 +62978,41 @@
         <v>1211700</v>
       </c>
     </row>
+    <row r="1749">
+      <c r="A1749" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1749" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1749" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>403300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1749"/>
+  <dimension ref="A1:I1750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63013,6 +63013,41 @@
         <v>403300</v>
       </c>
     </row>
+    <row r="1750">
+      <c r="A1750" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1750" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1750" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>529000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1750"/>
+  <dimension ref="A1:I1751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63048,6 +63048,41 @@
         <v>529000</v>
       </c>
     </row>
+    <row r="1751">
+      <c r="A1751" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1751" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1751" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>1184700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1751"/>
+  <dimension ref="A1:I1752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63083,6 +63083,41 @@
         <v>1184700</v>
       </c>
     </row>
+    <row r="1752">
+      <c r="A1752" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1752" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1752" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>318500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1752"/>
+  <dimension ref="A1:I1753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63118,6 +63118,41 @@
         <v>318500</v>
       </c>
     </row>
+    <row r="1753">
+      <c r="A1753" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1753" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1753" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>757100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1753"/>
+  <dimension ref="A1:I1754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63153,6 +63153,41 @@
         <v>757100</v>
       </c>
     </row>
+    <row r="1754">
+      <c r="A1754" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1754" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1754" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>584600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1754"/>
+  <dimension ref="A1:I1755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63188,6 +63188,41 @@
         <v>584600</v>
       </c>
     </row>
+    <row r="1755">
+      <c r="A1755" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1755" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1755" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>361800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1755"/>
+  <dimension ref="A1:I1756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63223,6 +63223,41 @@
         <v>361800</v>
       </c>
     </row>
+    <row r="1756">
+      <c r="A1756" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1756" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1756" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>1248300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1756"/>
+  <dimension ref="A1:I1757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63258,6 +63258,41 @@
         <v>1248300</v>
       </c>
     </row>
+    <row r="1757">
+      <c r="A1757" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1757" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>387100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1757"/>
+  <dimension ref="A1:I1758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63293,6 +63293,41 @@
         <v>387100</v>
       </c>
     </row>
+    <row r="1758">
+      <c r="A1758" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1758" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>384200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1758"/>
+  <dimension ref="A1:I1759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63328,6 +63328,41 @@
         <v>384200</v>
       </c>
     </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1759" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>378800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1759"/>
+  <dimension ref="A1:I1760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63363,6 +63363,41 @@
         <v>378800</v>
       </c>
     </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1760" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>1709500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1760"/>
+  <dimension ref="A1:I1761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63398,6 +63398,41 @@
         <v>1709500</v>
       </c>
     </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1761" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>1173100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1761"/>
+  <dimension ref="A1:I1762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63433,6 +63433,41 @@
         <v>1173100</v>
       </c>
     </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1762" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>1198000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1762"/>
+  <dimension ref="A1:I1763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63468,6 +63468,41 @@
         <v>1198000</v>
       </c>
     </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1763" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>1163000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1763"/>
+  <dimension ref="A1:I1764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63503,6 +63503,41 @@
         <v>1163000</v>
       </c>
     </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1764" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>437800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1764"/>
+  <dimension ref="A1:I1765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63538,6 +63538,41 @@
         <v>437800</v>
       </c>
     </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1765" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>426200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1765"/>
+  <dimension ref="A1:I1766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63573,6 +63573,41 @@
         <v>426200</v>
       </c>
     </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1766" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>595300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1766"/>
+  <dimension ref="A1:I1767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63608,6 +63608,41 @@
         <v>595300</v>
       </c>
     </row>
+    <row r="1767">
+      <c r="A1767" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1767" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>1008500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1767"/>
+  <dimension ref="A1:I1768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63643,6 +63643,41 @@
         <v>1008500</v>
       </c>
     </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1768" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>758000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1768"/>
+  <dimension ref="A1:I1770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63678,6 +63678,76 @@
         <v>758000</v>
       </c>
     </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1769" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>2657000</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1770" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>2277900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1770"/>
+  <dimension ref="A1:I1771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63748,6 +63748,41 @@
         <v>2277900</v>
       </c>
     </row>
+    <row r="1771">
+      <c r="A1771" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1771" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>1192500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1771"/>
+  <dimension ref="A1:I1774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63783,6 +63783,111 @@
         <v>1192500</v>
       </c>
     </row>
+    <row r="1772">
+      <c r="A1772" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1772" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>868600</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1773" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>1132800</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1774" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1774" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1774" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>1384400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1774"/>
+  <dimension ref="A1:I1775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63888,6 +63888,41 @@
         <v>1384400</v>
       </c>
     </row>
+    <row r="1775">
+      <c r="A1775" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1775" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1775" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1775" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>10577700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1775"/>
+  <dimension ref="A1:I1776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63923,6 +63923,41 @@
         <v>10577700</v>
       </c>
     </row>
+    <row r="1776">
+      <c r="A1776" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1776" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1776" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1776" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>5365400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0157.xlsx
+++ b/data/0157.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1776"/>
+  <dimension ref="A1:I1779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63958,6 +63958,111 @@
         <v>5365400</v>
       </c>
     </row>
+    <row r="1777">
+      <c r="A1777" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1777" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1777" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1777" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>1960600</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1778" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1778" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1778" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>1041500</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1779" t="inlineStr">
+        <is>
+          <t>0157</t>
+        </is>
+      </c>
+      <c r="D1779" t="inlineStr">
+        <is>
+          <t>FOCUSP</t>
+        </is>
+      </c>
+      <c r="E1779" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>2511900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
